--- a/LoopGame/LoopGame/Content/csv/Stage08.xlsx
+++ b/LoopGame/LoopGame/Content/csv/Stage08.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Sourcetree\Loop\LoopGame\LoopGame\Content\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K018A1442\Documents\LoopGame\LoopGame\LoopGame\Content\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7234C6-0FCC-4D74-B2E7-7CF8D98698EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="8064"/>
   </bookViews>
   <sheets>
-    <sheet name="TestStage09" sheetId="1" r:id="rId1"/>
+    <sheet name="TestStage07" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestStage09!$A$1:$P$9</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,19 +383,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16" width="3.125" customWidth="1"/>
+    <col min="1" max="16" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -419,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
         <v>1</v>
@@ -428,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -449,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,19 +453,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -478,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -499,307 +495,307 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -819,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -828,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
